--- a/汽柴煤油2.0/data_input/PP-山东丙烯.xlsx
+++ b/汽柴煤油2.0/data_input/PP-山东丙烯.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3137"/>
+  <dimension ref="A1:D3139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43144,13 +43144,41 @@
         <v>45954</v>
       </c>
       <c r="B3137" t="n">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C3137" t="n">
         <v>6684</v>
       </c>
       <c r="D3137" t="n">
-        <v>6015</v>
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3138" t="n">
+        <v>665</v>
+      </c>
+      <c r="C3138" t="n">
+        <v>6690</v>
+      </c>
+      <c r="D3138" t="n">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3139" t="n">
+        <v>676</v>
+      </c>
+      <c r="C3139" t="n">
+        <v>6686</v>
+      </c>
+      <c r="D3139" t="n">
+        <v>6010</v>
       </c>
     </row>
   </sheetData>
